--- a/data/2n.xlsx
+++ b/data/2n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CProject\ImageProcessing\Trend-similarity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43975DC0-691C-4424-B3A5-0324AAE92AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B2DC75-4E75-4A51-ACC0-6A1A0B9EAF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4452" yWindow="2160" windowWidth="19860" windowHeight="12888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6804" yWindow="1260" windowWidth="18828" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -2558,7 +2558,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2593,6 +2593,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2648,7 +2656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2666,6 +2674,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2935,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4453,7 +4462,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -16426,7 +16435,7 @@
   <autoFilter ref="A1:A385" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17843,7 +17852,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17857,6 +17866,6 @@
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/2n.xlsx
+++ b/data/2n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CProject\ImageProcessing\Trend-similarity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B2DC75-4E75-4A51-ACC0-6A1A0B9EAF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94E5A6-1352-427D-9746-6E307E1F8607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6804" yWindow="1260" windowWidth="18828" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -2944,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
